--- a/resources/ElenMatchR_phenotypes.xlsx
+++ b/resources/ElenMatchR_phenotypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/turnbaughlab/qb3share/jbisanz/ElGenomes2019/ElenMatchR_v1.0/ElenMatchR/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE41894-06A4-AD43-B7CF-C1B142B5ECD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A118DA3-F860-CC4C-ABCC-8E3F97CCFFB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="386">
   <si>
     <t>Adlercreutzia_equolifaciens_DSM19450</t>
   </si>
@@ -1208,6 +1208,9 @@
   </si>
   <si>
     <t>Strain_Name</t>
+  </si>
+  <si>
+    <t>PTJ0094</t>
   </si>
 </sst>
 </file>
@@ -2114,10 +2117,10 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3430,7 +3433,7 @@
         <v>105</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>246</v>
+        <v>385</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>207</v>
